--- a/Exp2/Prac_Order.xlsx
+++ b/Exp2/Prac_Order.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephine/Documents/research/FatFaceIllusion/program/Exp2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephine/Documents/GitHub/FatFace/Exp1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B4FBD3-7ED9-8947-8078-2C57A81F5DDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7E4D20-3354-0E40-9B94-C0EA1A23398D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="4940" windowWidth="24540" windowHeight="14000" xr2:uid="{D35D448A-7FFE-0246-8248-EAE779FEDAF7}"/>
+    <workbookView xWindow="3040" yWindow="6120" windowWidth="24540" windowHeight="14000" xr2:uid="{D35D448A-7FFE-0246-8248-EAE779FEDAF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
-  <si>
-    <t>S</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>DLU</t>
   </si>
@@ -52,22 +49,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>materials/Asian/Dominant/S_A_I1_03.png</t>
-  </si>
-  <si>
-    <t>materials/Black/Dominant/S_B_I1_03.png</t>
-  </si>
-  <si>
-    <t>materials/Caucasian/Submissive/L_C_I1_01.png</t>
-  </si>
-  <si>
-    <t>materials/Caucasian/Submissive/S_C_I1_01.png</t>
-  </si>
-  <si>
-    <t>materials/Asian/Submissive/S_A_I1_02.png</t>
-  </si>
-  <si>
-    <t>materials/Asian/Submissive/L_A_I1_02.png</t>
+    <t>DLU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DLD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>materials/Practice/001.jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>materials/Practice/002.jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -440,41 +435,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AFA961E-D22C-EB4D-84B0-7DDF88A5A5D7}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="30.1640625" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="1" max="2" width="52.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -483,32 +477,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>